--- a/f.xlsx
+++ b/f.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\zentaoalm\module\contract\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{15C6BEBA-AB1E-4D48-BD73-09FDF8B4F6E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5556EF2C-8A66-474F-A191-DED1B55CBDAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B9F866FC-00F7-49B1-A738-10A884D6321D}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="16">
   <si>
     <t>module</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -60,15 +60,42 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Delete</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>(done)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>edit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reject</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>seria</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kiana</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Contract Summary</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>delete</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>richard &amp; jason</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>upload signature image</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -121,12 +148,18 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -442,19 +475,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F0D942B-ED3F-4E40-9749-0EAFE5E20510}">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="38.75" customWidth="1"/>
     <col min="5" max="5" width="48.125" customWidth="1"/>
+    <col min="8" max="8" width="18.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -465,7 +499,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -476,8 +510,11 @@
       <c r="E2" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H2" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C3" s="1" t="s">
         <v>5</v>
       </c>
@@ -485,27 +522,82 @@
       <c r="E3" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H3" s="3"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F5" t="s">
-        <v>7</v>
+      <c r="H6" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H7" s="2"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H8" s="2"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H9" s="2"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C10" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="H10" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H11" s="2"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H12" s="2"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" t="s">
+        <v>15</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="H2:H3"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
